--- a/SandlerTrainingSLN/Documents/Aug-Sept/CompanyLoadTemplate.xlsx
+++ b/SandlerTrainingSLN/Documents/Aug-Sept/CompanyLoadTemplate.xlsx
@@ -523,7 +523,7 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
